--- a/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
+++ b/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\Self-practice(Tasks and IQ stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29030F54-831D-43C4-BA21-0EB529A85048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E00E3-6187-4081-9E2B-3FF118BAC812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>To Do</t>
   </si>
@@ -39,23 +39,54 @@
     <t>Resume EDA Projects</t>
   </si>
   <si>
-    <t>SQL book - pg44 and chapter 37</t>
+    <t>To be done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics Revision </t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL vs Python Project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Ratings Advance Visualisation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on linked in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>Play around with Spyder</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>EDA Resume project (Healthcare Domain)</t>
+  </si>
+  <si>
+    <t>EDA Resume project (Sports Domain)</t>
+  </si>
+  <si>
+    <t>SQL Notion Shit</t>
+  </si>
+  <si>
+    <t>Stats Project 1</t>
+  </si>
+  <si>
+    <t>Stats Project 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,13 +101,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,22 +144,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -379,42 +474,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>45716</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>45734</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>45734</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>45734</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>45734</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C14">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="To be done">
+      <formula>NOT(ISERROR(SEARCH("To be done",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",C3)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14" xr:uid="{5227195A-E2B1-46B7-86B4-E9F563518913}">
+      <formula1>"To be done,Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
+++ b/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\Self-practice(Tasks and IQ stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E00E3-6187-4081-9E2B-3FF118BAC812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBB354-B0F0-4D61-859B-58D58C52054E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>To Do</t>
   </si>
@@ -79,6 +79,33 @@
   </si>
   <si>
     <t>Stats Project 2</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Deploy using streamlit</t>
+  </si>
+  <si>
+    <t>19 and 20 ML code on Spyder</t>
+  </si>
+  <si>
+    <t>Titanic Pre-processing Dataset</t>
+  </si>
+  <si>
+    <t>Plan is simple , review the Linear Regression code and write it on your own and finish stats over this weekend</t>
+  </si>
+  <si>
+    <t>House Price Prediction Dataset</t>
+  </si>
+  <si>
+    <t>Try doing EDA on this and then building model</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ML model with front end</t>
   </si>
 </sst>
 </file>
@@ -122,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -148,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +205,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -474,22 +508,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -506,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>45716</v>
       </c>
@@ -517,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>45716</v>
       </c>
@@ -528,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>45716</v>
       </c>
@@ -539,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>45716</v>
       </c>
@@ -549,8 +585,11 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>45716</v>
       </c>
@@ -561,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>45716</v>
       </c>
@@ -571,8 +610,11 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>45716</v>
       </c>
@@ -583,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>45716</v>
       </c>
@@ -594,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>45734</v>
       </c>
@@ -605,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>45734</v>
       </c>
@@ -616,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>45734</v>
       </c>
@@ -624,10 +666,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>45734</v>
       </c>
@@ -638,9 +686,76 @@
         <v>4</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>45736</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>45736</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>45737</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>45738</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C14">
+  <conditionalFormatting sqref="C3:C18">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="To be done">
       <formula>NOT(ISERROR(SEARCH("To be done",C3)))</formula>
     </cfRule>
@@ -659,7 +774,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14" xr:uid="{5227195A-E2B1-46B7-86B4-E9F563518913}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C18" xr:uid="{5227195A-E2B1-46B7-86B4-E9F563518913}">
       <formula1>"To be done,Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
+++ b/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\Self-practice(Tasks and IQ stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBB354-B0F0-4D61-859B-58D58C52054E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF94B9F-86D9-4C47-ABBC-C6FD0C13AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,21 +511,21 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="64" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -542,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45716</v>
       </c>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45716</v>
       </c>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45716</v>
       </c>
@@ -575,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45716</v>
       </c>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45716</v>
       </c>
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45716</v>
       </c>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45716</v>
       </c>
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45716</v>
       </c>
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45734</v>
       </c>
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45734</v>
       </c>
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45734</v>
       </c>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45734</v>
       </c>
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45736</v>
       </c>
@@ -694,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45736</v>
       </c>
@@ -717,7 +717,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45737</v>
       </c>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45738</v>
       </c>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>25</v>
       </c>

--- a/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
+++ b/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\Self-practice(Tasks and IQ stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF94B9F-86D9-4C47-ABBC-C6FD0C13AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE178448-2A2B-4463-B8DD-9B0491C7879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1530" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>To Do</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Try doing EDA on this and then building model</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>ML model with front end</t>
@@ -508,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>2.5</v>
@@ -739,18 +736,13 @@
         <v>45738</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E18">
         <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
+++ b/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\Self-practice(Tasks and IQ stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE178448-2A2B-4463-B8DD-9B0491C7879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B02F70-280A-4DFD-90E4-991837ADE08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1530" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="624" yWindow="624" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>To Do</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Deploy using streamlit</t>
-  </si>
-  <si>
     <t>19 and 20 ML code on Spyder</t>
   </si>
   <si>
@@ -103,13 +100,22 @@
   </si>
   <si>
     <t>ML model with front end</t>
+  </si>
+  <si>
+    <t>Gemini chatbot with streamlit fromnt end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPLOY </t>
+  </si>
+  <si>
+    <t>Outlier treatement PDF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +147,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +216,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -505,24 +521,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="64" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -539,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>45716</v>
       </c>
@@ -550,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>45716</v>
       </c>
@@ -561,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>45716</v>
       </c>
@@ -572,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>45716</v>
       </c>
@@ -586,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>45716</v>
       </c>
@@ -597,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>45716</v>
       </c>
@@ -611,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>45716</v>
       </c>
@@ -622,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>45716</v>
       </c>
@@ -633,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>45734</v>
       </c>
@@ -644,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>45734</v>
       </c>
@@ -655,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>45734</v>
       </c>
@@ -665,14 +681,14 @@
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
+      <c r="D13" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>45734</v>
       </c>
@@ -683,29 +699,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>45736</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>45736</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -714,12 +733,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>45737</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -728,15 +747,15 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>45738</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -745,9 +764,31 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>45740</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>45740</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C18">
+  <conditionalFormatting sqref="C3:C20">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="To be done">
       <formula>NOT(ISERROR(SEARCH("To be done",C3)))</formula>
     </cfRule>
@@ -766,7 +807,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C18" xr:uid="{5227195A-E2B1-46B7-86B4-E9F563518913}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C20" xr:uid="{5227195A-E2B1-46B7-86B4-E9F563518913}">
       <formula1>"To be done,Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
+++ b/Self-practice(Tasks and IQ stuff)/TRACKER AND TASKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\Self-practice(Tasks and IQ stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B02F70-280A-4DFD-90E4-991837ADE08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701CB885-FDDA-4789-B02E-55D4EA0595DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="624" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>To Do</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Outlier treatement PDF</t>
+  </si>
+  <si>
+    <t>House Price Prediction Multiple Linear Regression</t>
+  </si>
+  <si>
+    <t>ML (multiple linear Regression)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -191,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +231,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -521,24 +534,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="64" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -555,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45716</v>
       </c>
@@ -566,7 +579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45716</v>
       </c>
@@ -577,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45716</v>
       </c>
@@ -588,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45716</v>
       </c>
@@ -602,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45716</v>
       </c>
@@ -613,7 +626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45716</v>
       </c>
@@ -627,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45716</v>
       </c>
@@ -638,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45716</v>
       </c>
@@ -649,18 +662,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45734</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45734</v>
       </c>
@@ -668,10 +681,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45734</v>
       </c>
@@ -688,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45734</v>
       </c>
@@ -699,11 +712,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45736</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -719,7 +732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45736</v>
       </c>
@@ -733,7 +746,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45737</v>
       </c>
@@ -750,7 +763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45738</v>
       </c>
@@ -764,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45740</v>
       </c>
@@ -775,20 +788,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
+        <v>45741</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>45740</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>45742</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C20">
+  <conditionalFormatting sqref="C3:C22">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="To be done">
       <formula>NOT(ISERROR(SEARCH("To be done",C3)))</formula>
     </cfRule>
@@ -807,7 +842,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C20" xr:uid="{5227195A-E2B1-46B7-86B4-E9F563518913}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C22" xr:uid="{5227195A-E2B1-46B7-86B4-E9F563518913}">
       <formula1>"To be done,Completed"</formula1>
     </dataValidation>
   </dataValidations>
